--- a/福山Aコース.xlsx
+++ b/福山Aコース.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="286">
   <si>
     <t>No</t>
   </si>
@@ -817,6 +817,63 @@
   </si>
   <si>
     <t>野乃鶏</t>
+  </si>
+  <si>
+    <t>上記期間は無休</t>
+  </si>
+  <si>
+    <t>8月11日(月)</t>
+  </si>
+  <si>
+    <t>8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月15日(金), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>19に配達</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月11日(月), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月15日(金)</t>
+  </si>
+  <si>
+    <t>上記期間は全て休業</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>15　未定</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>定休日、日曜日</t>
+  </si>
+  <si>
+    <t>8月13日(水), 8月14日(木), 8月15日(金)</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月11日(月), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月12日(火)</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月15日(金), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木)</t>
+  </si>
+  <si>
+    <t>8月15日(金), 8月17日(日)</t>
+  </si>
+  <si>
+    <t>120人</t>
   </si>
 </sst>
 </file>
@@ -826,7 +883,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -864,8 +921,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +939,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -885,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -943,6 +1010,14 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -976,7 +1051,7 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="4">
+  <tableStyles count="31">
     <tableStyle count="2" pivot="0" name="火曜日-style">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
@@ -990,6 +1065,114 @@
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="2" pivot="0" name="全件-style">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 2">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 3">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 4">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 5">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 6">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 7">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 8">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 9">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 10">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 11">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 12">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 13">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 14">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 15">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 16">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 17">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 18">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 19">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 20">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 21">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 22">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 23">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 24">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 25">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 26">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 27">
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="1" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="全件-style 28">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -1032,6 +1215,116 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C56:E56" displayName="Table_10" name="Table_10" id="10">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C76:E76" displayName="Table_11" name="Table_11" id="11">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C82:E82" displayName="Table_12" name="Table_12" id="12">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C95:E95" displayName="Table_13" name="Table_13" id="13">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 10" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C98:E98" displayName="Table_14" name="Table_14" id="14">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 11" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C106:E106" displayName="Table_15" name="Table_15" id="15">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 12" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C111:E111" displayName="Table_16" name="Table_16" id="16">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 13" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C114:E114" displayName="Table_17" name="Table_17" id="17">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 14" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C115:E116" displayName="Table_18" name="Table_18" id="18">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 15" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C122:E122" displayName="Table_19" name="Table_19" id="19">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 16" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="D2:F2" displayName="Table_2" name="Table_2" id="2">
   <tableColumns count="3">
@@ -1040,6 +1333,116 @@
     <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="水曜日-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C127:E127" displayName="Table_20" name="Table_20" id="20">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 17" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C137:E137" displayName="Table_21" name="Table_21" id="21">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 18" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C147:E147" displayName="Table_22" name="Table_22" id="22">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 19" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C152:E152" displayName="Table_23" name="Table_23" id="23">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 20" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C160:E160" displayName="Table_24" name="Table_24" id="24">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 21" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C167:E167" displayName="Table_25" name="Table_25" id="25">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 22" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C168:E168" displayName="Table_26" name="Table_26" id="26">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 23" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C180:E180" displayName="Table_27" name="Table_27" id="27">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 24" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C204:E204" displayName="Table_28" name="Table_28" id="28">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 25" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C207:E207" displayName="Table_29" name="Table_29" id="29">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 26" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1054,6 +1457,28 @@
 </table>
 </file>
 
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C209:E209" displayName="Table_30" name="Table_30" id="30">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 27" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C220:E220" displayName="Table_31" name="Table_31" id="31">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 28" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C2:E2" displayName="Table_4" name="Table_4" id="4">
   <tableColumns count="3">
@@ -1062,6 +1487,61 @@
     <tableColumn name="Column3" id="3"/>
   </tableColumns>
   <tableStyleInfo name="全件-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C4:E4" displayName="Table_5" name="Table_5" id="5">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C19:E19" displayName="Table_6" name="Table_6" id="6">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C21:E21" displayName="Table_7" name="Table_7" id="7">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C48:E49" displayName="Table_8" name="Table_8" id="8">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="C53:E53" displayName="Table_9" name="Table_9" id="9">
+  <tableColumns count="3">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+  </tableColumns>
+  <tableStyleInfo name="全件-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -1352,7 +1832,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,4,false)</f>
@@ -1697,7 +2177,7 @@
       </c>
       <c r="D19" s="3" t="str">
         <f>VLOOKUP($B19,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E19" s="3" t="str">
         <f>VLOOKUP($B19,'全件'!$A:$E,4,false)</f>
@@ -1743,15 +2223,15 @@
       </c>
       <c r="D21" s="3" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月17日(日)</v>
       </c>
       <c r="E21" s="3" t="str">
         <f>VLOOKUP($B21,'全件'!$A:$E,4,false)</f>
         <v/>
       </c>
-      <c r="F21" s="3" t="str">
+      <c r="F21" s="3">
         <f>VLOOKUP($B21,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2364,7 +2844,7 @@
       </c>
       <c r="D48" s="3" t="str">
         <f>VLOOKUP($B48,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E48" s="3" t="str">
         <f>VLOOKUP($B48,'全件'!$A:$E,4,false)</f>
@@ -2372,7 +2852,7 @@
       </c>
       <c r="F48" s="3" t="str">
         <f>VLOOKUP($B48,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>19に配達</v>
       </c>
     </row>
     <row r="49">
@@ -2387,7 +2867,7 @@
       </c>
       <c r="D49" s="3" t="str">
         <f>VLOOKUP($B49,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E49" s="3" t="str">
         <f>VLOOKUP($B49,'全件'!$A:$E,4,false)</f>
@@ -2479,7 +2959,7 @@
       </c>
       <c r="D53" s="3" t="str">
         <f>VLOOKUP($B53,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E53" s="3" t="str">
         <f>VLOOKUP($B53,'全件'!$A:$E,4,false)</f>
@@ -2548,7 +3028,7 @@
       </c>
       <c r="D56" s="3" t="str">
         <f>VLOOKUP($B56,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E56" s="3" t="str">
         <f>VLOOKUP($B56,'全件'!$A:$E,4,false)</f>
@@ -3008,7 +3488,7 @@
       </c>
       <c r="D76" s="3" t="str">
         <f>VLOOKUP($B76,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は全て休業</v>
       </c>
       <c r="E76" s="3" t="str">
         <f>VLOOKUP($B76,'全件'!$A:$E,4,false)</f>
@@ -3146,7 +3626,7 @@
       </c>
       <c r="D82" s="3" t="str">
         <f>VLOOKUP($B82,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E82" s="3" t="str">
         <f>VLOOKUP($B82,'全件'!$A:$E,4,false)</f>
@@ -3445,7 +3925,7 @@
       </c>
       <c r="D95" s="3" t="str">
         <f>VLOOKUP($B95,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E95" s="3" t="str">
         <f>VLOOKUP($B95,'全件'!$A:$E,4,false)</f>
@@ -3453,7 +3933,7 @@
       </c>
       <c r="F95" s="3" t="str">
         <f>VLOOKUP($B95,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>15　未定</v>
       </c>
     </row>
     <row r="96">
@@ -3514,7 +3994,7 @@
       </c>
       <c r="D98" s="3" t="str">
         <f>VLOOKUP($B98,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E98" s="3" t="str">
         <f>VLOOKUP($B98,'全件'!$A:$E,4,false)</f>
@@ -3522,7 +4002,7 @@
       </c>
       <c r="F98" s="3" t="str">
         <f>VLOOKUP($B98,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="99">
@@ -3738,7 +4218,7 @@
       </c>
       <c r="D2" s="8" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月13日(水), 8月14日(木), 8月15日(金)</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,4,false)</f>
@@ -3853,7 +4333,7 @@
       </c>
       <c r="D7" s="8" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月17日(日)</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,4,false)</f>
@@ -3922,7 +4402,7 @@
       </c>
       <c r="D10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月12日(火)</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,4,false)</f>
@@ -3945,7 +4425,7 @@
       </c>
       <c r="D11" s="8" t="str">
         <f>VLOOKUP($B11,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>VLOOKUP($B11,'全件'!$A:$E,4,false)</f>
@@ -3968,7 +4448,7 @@
       </c>
       <c r="D12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,4,false)</f>
@@ -4106,7 +4586,7 @@
       </c>
       <c r="D18" s="8" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月15日(金), 8月17日(日)</v>
       </c>
       <c r="E18" s="8" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,4,false)</f>
@@ -4221,7 +4701,7 @@
       </c>
       <c r="D23" s="8" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木)</v>
       </c>
       <c r="E23" s="8" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,4,false)</f>
@@ -4451,7 +4931,7 @@
       </c>
       <c r="D33" s="8" t="str">
         <f>VLOOKUP($B33,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E33" s="8" t="str">
         <f>VLOOKUP($B33,'全件'!$A:$E,4,false)</f>
@@ -4681,7 +5161,7 @@
       </c>
       <c r="D43" s="8" t="str">
         <f>VLOOKUP($B43,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E43" s="8" t="str">
         <f>VLOOKUP($B43,'全件'!$A:$E,4,false)</f>
@@ -4796,7 +5276,7 @@
       </c>
       <c r="D48" s="8" t="str">
         <f>VLOOKUP($B48,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E48" s="8" t="str">
         <f>VLOOKUP($B48,'全件'!$A:$E,4,false)</f>
@@ -4980,7 +5460,7 @@
       </c>
       <c r="D56" s="8" t="str">
         <f>VLOOKUP($B56,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E56" s="8" t="str">
         <f>VLOOKUP($B56,'全件'!$A:$E,4,false)</f>
@@ -5141,7 +5621,7 @@
       </c>
       <c r="D63" s="8" t="str">
         <f>VLOOKUP($B63,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E63" s="8" t="str">
         <f>VLOOKUP($B63,'全件'!$A:$E,4,false)</f>
@@ -5164,7 +5644,7 @@
       </c>
       <c r="D64" s="8" t="str">
         <f>VLOOKUP($B64,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E64" s="8" t="str">
         <f>VLOOKUP($B64,'全件'!$A:$E,4,false)</f>
@@ -5440,7 +5920,7 @@
       </c>
       <c r="D76" s="8" t="str">
         <f>VLOOKUP($B76,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E76" s="8" t="str">
         <f>VLOOKUP($B76,'全件'!$A:$E,4,false)</f>
@@ -6035,7 +6515,7 @@
       </c>
       <c r="D7" s="8" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月17日(日)</v>
       </c>
       <c r="E7" s="8" t="str">
         <f>VLOOKUP($B7,'全件'!$A:$E,4,false)</f>
@@ -6104,7 +6584,7 @@
       </c>
       <c r="D10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,4,false)</f>
@@ -6150,7 +6630,7 @@
       </c>
       <c r="D12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月17日(日)</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,4,false)</f>
@@ -6426,11 +6906,11 @@
       </c>
       <c r="D24" s="8" t="str">
         <f>VLOOKUP($B24,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E24" s="8" t="str">
         <f>VLOOKUP($B24,'全件'!$A:$E,4,false)</f>
-        <v/>
+        <v>120人</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>VLOOKUP($B24,'全件'!$A:$E,5,false)</f>
@@ -7132,7 +7612,7 @@
       </c>
       <c r="D4" s="3" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E4" s="3" t="str">
         <f>VLOOKUP($B4,'全件'!$A:$E,4,false)</f>
@@ -7500,7 +7980,7 @@
       </c>
       <c r="D20" s="3" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E20" s="3" t="str">
         <f>VLOOKUP($B20,'全件'!$A:$E,4,false)</f>
@@ -7569,15 +8049,15 @@
       </c>
       <c r="D23" s="3" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月17日(日)</v>
       </c>
       <c r="E23" s="3" t="str">
         <f>VLOOKUP($B23,'全件'!$A:$E,4,false)</f>
         <v/>
       </c>
-      <c r="F23" s="3" t="str">
+      <c r="F23" s="3">
         <f>VLOOKUP($B23,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -8236,7 +8716,7 @@
       </c>
       <c r="D52" s="3" t="str">
         <f>VLOOKUP($B52,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E52" s="3" t="str">
         <f>VLOOKUP($B52,'全件'!$A:$E,4,false)</f>
@@ -8244,7 +8724,7 @@
       </c>
       <c r="F52" s="3" t="str">
         <f>VLOOKUP($B52,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>19に配達</v>
       </c>
     </row>
     <row r="53">
@@ -8259,7 +8739,7 @@
       </c>
       <c r="D53" s="3" t="str">
         <f>VLOOKUP($B53,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E53" s="3" t="str">
         <f>VLOOKUP($B53,'全件'!$A:$E,4,false)</f>
@@ -8351,7 +8831,7 @@
       </c>
       <c r="D57" s="3" t="str">
         <f>VLOOKUP($B57,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E57" s="3" t="str">
         <f>VLOOKUP($B57,'全件'!$A:$E,4,false)</f>
@@ -8397,7 +8877,7 @@
       </c>
       <c r="D59" s="3" t="str">
         <f>VLOOKUP($B59,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E59" s="3" t="str">
         <f>VLOOKUP($B59,'全件'!$A:$E,4,false)</f>
@@ -8926,7 +9406,7 @@
       </c>
       <c r="D82" s="3" t="str">
         <f>VLOOKUP($B82,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は全て休業</v>
       </c>
       <c r="E82" s="3" t="str">
         <f>VLOOKUP($B82,'全件'!$A:$E,4,false)</f>
@@ -9087,7 +9567,7 @@
       </c>
       <c r="D89" s="3" t="str">
         <f>VLOOKUP($B89,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木), 8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E89" s="3" t="str">
         <f>VLOOKUP($B89,'全件'!$A:$E,4,false)</f>
@@ -9409,7 +9889,7 @@
       </c>
       <c r="D103" s="3" t="str">
         <f>VLOOKUP($B103,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E103" s="3" t="str">
         <f>VLOOKUP($B103,'全件'!$A:$E,4,false)</f>
@@ -9417,7 +9897,7 @@
       </c>
       <c r="F103" s="3" t="str">
         <f>VLOOKUP($B103,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>15　未定</v>
       </c>
     </row>
     <row r="104">
@@ -9524,7 +10004,7 @@
       </c>
       <c r="D108" s="3" t="str">
         <f>VLOOKUP($B108,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E108" s="3" t="str">
         <f>VLOOKUP($B108,'全件'!$A:$E,4,false)</f>
@@ -9532,7 +10012,7 @@
       </c>
       <c r="F108" s="3" t="str">
         <f>VLOOKUP($B108,'全件'!$A:$E,5,false)</f>
-        <v/>
+        <v>定休日、日曜日</v>
       </c>
     </row>
     <row r="109">
@@ -9725,7 +10205,7 @@
       </c>
       <c r="D2" s="8" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月13日(水), 8月14日(木), 8月15日(金)</v>
       </c>
       <c r="E2" s="8" t="str">
         <f>VLOOKUP($B2,'全件'!$A:$E,4,false)</f>
@@ -9863,7 +10343,7 @@
       </c>
       <c r="D8" s="8" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月17日(日)</v>
       </c>
       <c r="E8" s="8" t="str">
         <f>VLOOKUP($B8,'全件'!$A:$E,4,false)</f>
@@ -9909,7 +10389,7 @@
       </c>
       <c r="D10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月12日(火)</v>
       </c>
       <c r="E10" s="8" t="str">
         <f>VLOOKUP($B10,'全件'!$A:$E,4,false)</f>
@@ -9932,7 +10412,7 @@
       </c>
       <c r="D11" s="8" t="str">
         <f>VLOOKUP($B11,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E11" s="8" t="str">
         <f>VLOOKUP($B11,'全件'!$A:$E,4,false)</f>
@@ -9955,7 +10435,7 @@
       </c>
       <c r="D12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月11日(月)</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>VLOOKUP($B12,'全件'!$A:$E,4,false)</f>
@@ -10093,7 +10573,7 @@
       </c>
       <c r="D18" s="8" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月15日(金), 8月17日(日)</v>
       </c>
       <c r="E18" s="8" t="str">
         <f>VLOOKUP($B18,'全件'!$A:$E,4,false)</f>
@@ -10185,7 +10665,7 @@
       </c>
       <c r="D22" s="8" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月11日(月), 8月12日(火), 8月13日(水), 8月14日(木)</v>
       </c>
       <c r="E22" s="8" t="str">
         <f>VLOOKUP($B22,'全件'!$A:$E,4,false)</f>
@@ -10346,7 +10826,7 @@
       </c>
       <c r="D29" s="8" t="str">
         <f>VLOOKUP($B29,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E29" s="8" t="str">
         <f>VLOOKUP($B29,'全件'!$A:$E,4,false)</f>
@@ -10576,7 +11056,7 @@
       </c>
       <c r="D39" s="8" t="str">
         <f>VLOOKUP($B39,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E39" s="8" t="str">
         <f>VLOOKUP($B39,'全件'!$A:$E,4,false)</f>
@@ -10737,7 +11217,7 @@
       </c>
       <c r="D46" s="8" t="str">
         <f>VLOOKUP($B46,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E46" s="8" t="str">
         <f>VLOOKUP($B46,'全件'!$A:$E,4,false)</f>
@@ -10875,7 +11355,7 @@
       </c>
       <c r="D52" s="8" t="str">
         <f>VLOOKUP($B52,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>上記期間は無休</v>
       </c>
       <c r="E52" s="8" t="str">
         <f>VLOOKUP($B52,'全件'!$A:$E,4,false)</f>
@@ -11036,7 +11516,7 @@
       </c>
       <c r="D59" s="8" t="str">
         <f>VLOOKUP($B59,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月10日(日), 8月17日(日)</v>
       </c>
       <c r="E59" s="8" t="str">
         <f>VLOOKUP($B59,'全件'!$A:$E,4,false)</f>
@@ -11059,7 +11539,7 @@
       </c>
       <c r="D60" s="8" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金)</v>
       </c>
       <c r="E60" s="8" t="str">
         <f>VLOOKUP($B60,'全件'!$A:$E,4,false)</f>
@@ -11335,7 +11815,7 @@
       </c>
       <c r="D72" s="8" t="str">
         <f>VLOOKUP($B72,'全件'!$A:$E,3,false)</f>
-        <v/>
+        <v>8月15日(金), 8月16日(土), 8月17日(日)</v>
       </c>
       <c r="E72" s="8" t="str">
         <f>VLOOKUP($B72,'全件'!$A:$E,4,false)</f>
@@ -11805,6 +12285,11 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5">
       <c r="A5" s="3">
@@ -11925,6 +12410,11 @@
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C19" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -11941,6 +12431,13 @@
       <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="C21" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="24">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
@@ -12157,6 +12654,13 @@
       <c r="B48" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C48" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="22" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
@@ -12165,6 +12669,11 @@
       <c r="B49" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C49" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
@@ -12197,6 +12706,11 @@
       <c r="B53" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C53" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54">
       <c r="A54" s="3">
@@ -12221,6 +12735,11 @@
       <c r="B56" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="C56" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -12381,6 +12900,11 @@
       <c r="B76" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C76" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
@@ -12429,6 +12953,11 @@
       <c r="B82" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="C82" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
     </row>
     <row r="83">
       <c r="A83" s="3">
@@ -12533,6 +13062,13 @@
       <c r="B95" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="C95" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="22" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="3">
@@ -12557,6 +13093,13 @@
       <c r="B98" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="C98" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="22" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="3">
@@ -12621,6 +13164,11 @@
       <c r="B106" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="C106" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D106" s="23"/>
+      <c r="E106" s="23"/>
     </row>
     <row r="107">
       <c r="A107" s="6">
@@ -12661,6 +13209,11 @@
       <c r="B111" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="C111" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
     </row>
     <row r="112">
       <c r="A112" s="6">
@@ -12685,6 +13238,11 @@
       <c r="B114" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="C114" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
     </row>
     <row r="115">
       <c r="A115" s="6">
@@ -12693,6 +13251,11 @@
       <c r="B115" s="7" t="s">
         <v>119</v>
       </c>
+      <c r="C115" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D115" s="23"/>
+      <c r="E115" s="23"/>
     </row>
     <row r="116">
       <c r="A116" s="9">
@@ -12701,6 +13264,11 @@
       <c r="B116" s="10" t="s">
         <v>120</v>
       </c>
+      <c r="C116" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" s="23"/>
+      <c r="E116" s="23"/>
     </row>
     <row r="117">
       <c r="A117" s="6">
@@ -12749,6 +13317,11 @@
       <c r="B122" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="C122" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
     </row>
     <row r="123">
       <c r="A123" s="6">
@@ -12789,6 +13362,11 @@
       <c r="B127" s="10" t="s">
         <v>131</v>
       </c>
+      <c r="C127" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
     </row>
     <row r="128">
       <c r="A128" s="9">
@@ -12869,6 +13447,11 @@
       <c r="B137" s="10" t="s">
         <v>141</v>
       </c>
+      <c r="C137" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
     </row>
     <row r="138">
       <c r="A138" s="6">
@@ -12949,6 +13532,11 @@
       <c r="B147" s="7" t="s">
         <v>151</v>
       </c>
+      <c r="C147" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D147" s="23"/>
+      <c r="E147" s="23"/>
     </row>
     <row r="148">
       <c r="A148" s="9">
@@ -12989,6 +13577,11 @@
       <c r="B152" s="7" t="s">
         <v>156</v>
       </c>
+      <c r="C152" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D152" s="21"/>
+      <c r="E152" s="21"/>
     </row>
     <row r="153">
       <c r="A153" s="6">
@@ -13053,6 +13646,11 @@
       <c r="B160" s="10" t="s">
         <v>164</v>
       </c>
+      <c r="C160" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="D160" s="23"/>
+      <c r="E160" s="23"/>
     </row>
     <row r="161">
       <c r="A161" s="6">
@@ -13109,6 +13707,11 @@
       <c r="B167" s="7" t="s">
         <v>171</v>
       </c>
+      <c r="C167" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D167" s="23"/>
+      <c r="E167" s="23"/>
     </row>
     <row r="168">
       <c r="A168" s="6">
@@ -13117,6 +13720,11 @@
       <c r="B168" s="7" t="s">
         <v>172</v>
       </c>
+      <c r="C168" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
     </row>
     <row r="169">
       <c r="A169" s="6">
@@ -13213,6 +13821,11 @@
       <c r="B180" s="10" t="s">
         <v>184</v>
       </c>
+      <c r="C180" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D180" s="21"/>
+      <c r="E180" s="21"/>
     </row>
     <row r="181">
       <c r="A181" s="9">
@@ -13405,6 +14018,11 @@
       <c r="B204" s="7" t="s">
         <v>208</v>
       </c>
+      <c r="C204" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
     </row>
     <row r="205">
       <c r="A205" s="6">
@@ -13429,6 +14047,11 @@
       <c r="B207" s="7" t="s">
         <v>211</v>
       </c>
+      <c r="C207" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D207" s="23"/>
+      <c r="E207" s="23"/>
     </row>
     <row r="208">
       <c r="A208" s="6">
@@ -13445,6 +14068,11 @@
       <c r="B209" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="C209" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D209" s="23"/>
+      <c r="E209" s="23"/>
     </row>
     <row r="210">
       <c r="A210" s="6">
@@ -13533,6 +14161,13 @@
       <c r="B220" s="7" t="s">
         <v>224</v>
       </c>
+      <c r="C220" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D220" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E220" s="21"/>
     </row>
     <row r="221">
       <c r="A221" s="11">
@@ -13872,8 +14507,35 @@
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <tableParts count="28">
+    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
+    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId36"/>
+    <tablePart r:id="rId37"/>
+    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId39"/>
+    <tablePart r:id="rId40"/>
+    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId42"/>
+    <tablePart r:id="rId43"/>
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
+    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId48"/>
+    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
+    <tablePart r:id="rId51"/>
+    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId55"/>
+    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>